--- a/public/template/trainRecords.xlsx
+++ b/public/template/trainRecords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyongtao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyongtao/Documents/projects/web/elitesland/lemon/telework-web-production/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCFABF-1EDD-9F4B-B027-4758CC23634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668E0EE-45C7-C148-A2C1-89E4E20C4B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 Learning History" sheetId="10" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="22">
-  <si>
-    <t>领导力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,16 +88,6 @@
   </si>
   <si>
     <t>新员工培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业技能</t>
-  </si>
-  <si>
-    <t>领导力</t>
-  </si>
-  <si>
-    <t>新员工培训</t>
   </si>
   <si>
     <t>供应商</t>
@@ -120,6 +96,33 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1100003</t>
+  </si>
+  <si>
+    <t>邵泽文</t>
+  </si>
+  <si>
+    <t>未设置</t>
+  </si>
+  <si>
+    <t>资源管理部</t>
+  </si>
+  <si>
+    <t>青岛市</t>
+  </si>
+  <si>
+    <t>T3-3</t>
+  </si>
+  <si>
+    <t>曲来杰</t>
+  </si>
+  <si>
+    <t>课程名称</t>
+  </si>
+  <si>
+    <t>中汇会计师事务所有限公司上海分所</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,6 +260,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,7 +548,7 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240:T242"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -559,69 +564,97 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="16">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22">
+        <v>40651</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>14</v>
+      <c r="K2" s="22">
+        <v>44524</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L2" s="21">
+        <v>60</v>
+      </c>
+      <c r="M2" s="21">
+        <v>100</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="16">
-      <c r="A2" s="13"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16">
       <c r="A3" s="13"/>
@@ -633,9 +666,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -652,9 +683,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -671,9 +700,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -690,9 +717,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -709,9 +734,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -728,9 +751,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -747,9 +768,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -766,9 +785,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -785,9 +802,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -804,9 +819,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -823,9 +836,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -842,9 +853,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -861,9 +870,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -880,9 +887,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -899,9 +904,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -918,9 +921,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -937,9 +938,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -956,9 +955,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -975,9 +972,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -994,9 +989,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1013,9 +1006,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1032,9 +1023,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1051,9 +1040,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1070,9 +1057,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1089,9 +1074,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1108,9 +1091,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1127,9 +1108,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1146,9 +1125,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1165,9 +1142,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1184,9 +1159,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1203,9 +1176,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1222,9 +1193,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1241,9 +1210,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -1260,9 +1227,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -1279,9 +1244,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -1298,9 +1261,7 @@
       <c r="G38" s="16"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1317,9 +1278,7 @@
       <c r="G39" s="16"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1336,9 +1295,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="J40" s="4"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -1355,9 +1312,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -1374,9 +1329,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -1393,9 +1346,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -1412,9 +1363,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1431,9 +1380,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1450,9 +1397,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1469,9 +1414,7 @@
       <c r="G47" s="16"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1488,9 +1431,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1507,9 +1448,7 @@
       <c r="G49" s="16"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1526,9 +1465,7 @@
       <c r="G50" s="16"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1545,9 +1482,7 @@
       <c r="G51" s="16"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -1564,9 +1499,7 @@
       <c r="G52" s="16"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -1583,9 +1516,7 @@
       <c r="G53" s="16"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J53" s="2"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -1602,9 +1533,7 @@
       <c r="G54" s="16"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -1621,9 +1550,7 @@
       <c r="G55" s="16"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J55" s="2"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -1640,9 +1567,7 @@
       <c r="G56" s="16"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J56" s="2"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -1659,9 +1584,7 @@
       <c r="G57" s="16"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J57" s="2"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -1678,9 +1601,7 @@
       <c r="G58" s="16"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -1697,9 +1618,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -1716,9 +1635,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J60" s="2"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -1735,9 +1652,7 @@
       <c r="G61" s="16"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -1754,9 +1669,7 @@
       <c r="G62" s="16"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -1773,9 +1686,7 @@
       <c r="G63" s="16"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -1792,9 +1703,7 @@
       <c r="G64" s="16"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J64" s="2"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -1811,9 +1720,7 @@
       <c r="G65" s="16"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J65" s="2"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -1830,9 +1737,7 @@
       <c r="G66" s="16"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -1849,9 +1754,7 @@
       <c r="G67" s="16"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J67" s="2"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -1868,9 +1771,7 @@
       <c r="G68" s="16"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -1887,9 +1788,7 @@
       <c r="G69" s="16"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -1906,9 +1805,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -1925,9 +1822,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -1944,9 +1839,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -1963,9 +1856,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -1982,9 +1873,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2001,9 +1890,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2020,9 +1907,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2039,9 +1924,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J77" s="2"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2058,9 +1941,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="20"/>
@@ -2077,9 +1958,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="20"/>
@@ -2096,9 +1975,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J80" s="2"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="20"/>
@@ -2115,9 +1992,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J81" s="2"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="20"/>
@@ -2134,9 +2009,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J82" s="2"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="20"/>
@@ -2153,9 +2026,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J83" s="2"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="20"/>
@@ -2172,9 +2043,7 @@
       <c r="G84" s="16"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="20"/>
@@ -2191,9 +2060,7 @@
       <c r="G85" s="16"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="20"/>
@@ -2210,9 +2077,7 @@
       <c r="G86" s="16"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="20"/>
@@ -2229,9 +2094,7 @@
       <c r="G87" s="16"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="20"/>
@@ -2248,9 +2111,7 @@
       <c r="G88" s="16"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="20"/>
@@ -2267,9 +2128,7 @@
       <c r="G89" s="16"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="20"/>
@@ -2286,9 +2145,7 @@
       <c r="G90" s="16"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="20"/>
@@ -2305,9 +2162,7 @@
       <c r="G91" s="16"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="20"/>
@@ -2324,9 +2179,7 @@
       <c r="G92" s="16"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="20"/>
@@ -2343,9 +2196,7 @@
       <c r="G93" s="16"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="20"/>
@@ -2362,9 +2213,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J94" s="2"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="20"/>
@@ -2381,9 +2230,7 @@
       <c r="G95" s="16"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="20"/>
@@ -2400,9 +2247,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="20"/>
@@ -2419,9 +2264,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J97" s="2"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="20"/>
@@ -2438,9 +2281,7 @@
       <c r="G98" s="16"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J98" s="2"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="20"/>
@@ -2457,9 +2298,7 @@
       <c r="G99" s="16"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J99" s="2"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="20"/>
@@ -2476,9 +2315,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="10"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J100" s="2"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -2495,9 +2332,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="10"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J101" s="2"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -2514,9 +2349,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="10"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -2533,9 +2366,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="10"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J103" s="2"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -2552,9 +2383,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="10"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J104" s="2"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -2571,9 +2400,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="10"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J105" s="2"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -2590,9 +2417,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="10"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J106" s="2"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -2609,9 +2434,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="10"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J107" s="2"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -2628,9 +2451,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="10"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J108" s="2"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -2647,9 +2468,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="10"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J109" s="2"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -2666,9 +2485,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -2685,9 +2502,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -2704,9 +2519,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -2723,9 +2536,7 @@
       <c r="G113" s="16"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -2742,9 +2553,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -2761,9 +2570,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -2780,9 +2587,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -2799,9 +2604,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -2818,9 +2621,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -2837,9 +2638,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -2856,9 +2655,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -2875,9 +2672,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J121" s="2"/>
       <c r="K121" s="7"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -2894,9 +2689,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -2913,9 +2706,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -2932,9 +2723,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J124" s="2"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -2951,9 +2740,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J125" s="2"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -2970,9 +2757,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J126" s="2"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -2989,9 +2774,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J127" s="2"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -3008,9 +2791,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J128" s="2"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -3027,9 +2808,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J129" s="2"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -3046,9 +2825,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J130" s="2"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -3065,9 +2842,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J131" s="2"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -3084,9 +2859,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J132" s="2"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -3103,9 +2876,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J133" s="2"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -3122,9 +2893,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J134" s="18"/>
       <c r="K134" s="18"/>
       <c r="L134" s="3"/>
       <c r="M134" s="20"/>
@@ -3141,9 +2910,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J135" s="18"/>
       <c r="K135" s="18"/>
       <c r="L135" s="3"/>
       <c r="M135" s="20"/>
@@ -3160,9 +2927,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J136" s="18"/>
       <c r="K136" s="18"/>
       <c r="L136" s="3"/>
       <c r="M136" s="20"/>
@@ -3179,9 +2944,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J137" s="18"/>
       <c r="K137" s="18"/>
       <c r="L137" s="3"/>
       <c r="M137" s="20"/>
@@ -3198,9 +2961,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J138" s="18"/>
       <c r="K138" s="18"/>
       <c r="L138" s="3"/>
       <c r="M138" s="20"/>
@@ -3217,9 +2978,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J139" s="18"/>
       <c r="K139" s="18"/>
       <c r="L139" s="3"/>
       <c r="M139" s="20"/>
@@ -3236,9 +2995,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J140" s="18"/>
       <c r="K140" s="18"/>
       <c r="L140" s="3"/>
       <c r="M140" s="20"/>
@@ -3255,9 +3012,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J141" s="18"/>
       <c r="K141" s="18"/>
       <c r="L141" s="3"/>
       <c r="M141" s="20"/>
@@ -3274,9 +3029,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J142" s="2"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -3293,9 +3046,7 @@
       <c r="G143" s="16"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J143" s="2"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -3312,9 +3063,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
-      <c r="J144" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J144" s="2"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -3331,9 +3080,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J145" s="2"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -3350,9 +3097,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J146" s="2"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -3369,9 +3114,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J147" s="2"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -3388,9 +3131,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -3407,9 +3148,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J149" s="2"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -3426,9 +3165,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -3445,9 +3182,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -3464,9 +3199,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -3483,9 +3216,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
-      <c r="J153" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -3502,9 +3233,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J154" s="18"/>
       <c r="K154" s="18"/>
       <c r="L154" s="3"/>
       <c r="M154" s="20"/>
@@ -3521,9 +3250,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J155" s="18"/>
       <c r="K155" s="18"/>
       <c r="L155" s="3"/>
       <c r="M155" s="20"/>
@@ -3540,9 +3267,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J156" s="18"/>
       <c r="K156" s="18"/>
       <c r="L156" s="3"/>
       <c r="M156" s="20"/>
@@ -3559,9 +3284,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
-      <c r="J157" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J157" s="18"/>
       <c r="K157" s="18"/>
       <c r="L157" s="3"/>
       <c r="M157" s="20"/>
@@ -3578,9 +3301,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J158" s="18"/>
       <c r="K158" s="18"/>
       <c r="L158" s="3"/>
       <c r="M158" s="20"/>
@@ -3597,9 +3318,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J159" s="18"/>
       <c r="K159" s="18"/>
       <c r="L159" s="3"/>
       <c r="M159" s="20"/>
@@ -3616,9 +3335,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J160" s="18"/>
       <c r="K160" s="18"/>
       <c r="L160" s="3"/>
       <c r="M160" s="20"/>
@@ -3635,9 +3352,7 @@
       <c r="G161" s="16"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J161" s="18"/>
       <c r="K161" s="18"/>
       <c r="L161" s="3"/>
       <c r="M161" s="20"/>
@@ -3654,9 +3369,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J162" s="18"/>
       <c r="K162" s="18"/>
       <c r="L162" s="3"/>
       <c r="M162" s="20"/>
@@ -3673,9 +3386,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -3692,9 +3403,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J164" s="2"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -3711,9 +3420,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J165" s="2"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -3730,9 +3437,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J166" s="2"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -3749,9 +3454,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J167" s="2"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -3768,9 +3471,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J168" s="2"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -3787,9 +3488,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J169" s="2"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -3806,9 +3505,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
-      <c r="J170" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J170" s="2"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -3825,9 +3522,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J171" s="2"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -3844,9 +3539,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J172" s="2"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -3863,9 +3556,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J173" s="2"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -3882,9 +3573,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J174" s="18"/>
       <c r="K174" s="18"/>
       <c r="L174" s="3"/>
       <c r="M174" s="20"/>
@@ -3901,9 +3590,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J175" s="18"/>
       <c r="K175" s="18"/>
       <c r="L175" s="3"/>
       <c r="M175" s="20"/>
@@ -3920,9 +3607,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-      <c r="J176" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J176" s="18"/>
       <c r="K176" s="18"/>
       <c r="L176" s="3"/>
       <c r="M176" s="20"/>
@@ -3939,9 +3624,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J177" s="18"/>
       <c r="K177" s="18"/>
       <c r="L177" s="3"/>
       <c r="M177" s="20"/>
@@ -3958,9 +3641,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
-      <c r="J178" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J178" s="18"/>
       <c r="K178" s="18"/>
       <c r="L178" s="3"/>
       <c r="M178" s="20"/>
@@ -3977,9 +3658,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
-      <c r="J179" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J179" s="18"/>
       <c r="K179" s="18"/>
       <c r="L179" s="3"/>
       <c r="M179" s="20"/>
@@ -3996,9 +3675,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
-      <c r="J180" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J180" s="18"/>
       <c r="K180" s="18"/>
       <c r="L180" s="3"/>
       <c r="M180" s="20"/>
@@ -4015,9 +3692,7 @@
       <c r="G181" s="16"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J181" s="18"/>
       <c r="K181" s="18"/>
       <c r="L181" s="3"/>
       <c r="M181" s="20"/>
@@ -4034,9 +3709,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
-      <c r="J182" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="J182" s="18"/>
       <c r="K182" s="18"/>
       <c r="L182" s="3"/>
       <c r="M182" s="20"/>
@@ -4053,9 +3726,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
-      <c r="J183" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J183" s="2"/>
       <c r="K183" s="18"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -4072,9 +3743,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
-      <c r="J184" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J184" s="2"/>
       <c r="K184" s="18"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -4091,9 +3760,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J185" s="2"/>
       <c r="K185" s="18"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -4110,9 +3777,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J186" s="2"/>
       <c r="K186" s="18"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -4129,9 +3794,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
-      <c r="J187" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J187" s="2"/>
       <c r="K187" s="18"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -4148,9 +3811,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
-      <c r="J188" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J188" s="2"/>
       <c r="K188" s="18"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -4167,9 +3828,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J189" s="2"/>
       <c r="K189" s="18"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -4186,9 +3845,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
-      <c r="J190" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J190" s="2"/>
       <c r="K190" s="18"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -4205,9 +3862,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
-      <c r="J191" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J191" s="2"/>
       <c r="K191" s="18"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -4224,9 +3879,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
-      <c r="J192" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J192" s="2"/>
       <c r="K192" s="18"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -4243,9 +3896,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
-      <c r="J193" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J193" s="2"/>
       <c r="K193" s="18"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -4262,9 +3913,7 @@
       <c r="G194" s="16"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J194" s="2"/>
       <c r="K194" s="18"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -4281,9 +3930,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J195" s="2"/>
       <c r="K195" s="18"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -4300,9 +3947,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J196" s="2"/>
       <c r="K196" s="18"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -4319,9 +3964,7 @@
       <c r="G197" s="16"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J197" s="2"/>
       <c r="K197" s="18"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -4338,9 +3981,7 @@
       <c r="G198" s="16"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J198" s="2"/>
       <c r="K198" s="18"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -4357,9 +3998,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J199" s="2"/>
       <c r="K199" s="18"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -4376,9 +4015,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J200" s="2"/>
       <c r="K200" s="18"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -4395,9 +4032,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J201" s="2"/>
       <c r="K201" s="18"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -4414,9 +4049,7 @@
       <c r="G202" s="8"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J202" s="2"/>
       <c r="K202" s="18"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -4433,9 +4066,7 @@
       <c r="G203" s="8"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J203" s="2"/>
       <c r="K203" s="18"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -4452,9 +4083,7 @@
       <c r="G204" s="8"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J204" s="2"/>
       <c r="K204" s="18"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -4471,9 +4100,7 @@
       <c r="G205" s="16"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J205" s="2"/>
       <c r="K205" s="18"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -4490,9 +4117,7 @@
       <c r="G206" s="16"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J206" s="2"/>
       <c r="K206" s="18"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -4509,9 +4134,7 @@
       <c r="G207" s="8"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J207" s="2"/>
       <c r="K207" s="18"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
@@ -4528,9 +4151,7 @@
       <c r="G208" s="16"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J208" s="2"/>
       <c r="K208" s="18"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
@@ -4547,9 +4168,7 @@
       <c r="G209" s="16"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J209" s="2"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -4566,9 +4185,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
-      <c r="J210" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J210" s="2"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -4585,9 +4202,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
-      <c r="J211" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J211" s="2"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
@@ -4604,9 +4219,7 @@
       <c r="G212" s="16"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
-      <c r="J212" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J212" s="2"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
@@ -4623,9 +4236,7 @@
       <c r="G213" s="16"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
-      <c r="J213" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J213" s="2"/>
       <c r="K213" s="18"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
@@ -4642,9 +4253,7 @@
       <c r="G214" s="16"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
-      <c r="J214" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J214" s="2"/>
       <c r="K214" s="18"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -4661,9 +4270,7 @@
       <c r="G215" s="16"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
-      <c r="J215" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J215" s="2"/>
       <c r="K215" s="18"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
@@ -4680,9 +4287,7 @@
       <c r="G216" s="16"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
-      <c r="J216" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J216" s="2"/>
       <c r="K216" s="18"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
@@ -4699,9 +4304,7 @@
       <c r="G217" s="16"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J217" s="2"/>
       <c r="K217" s="18"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
@@ -4718,9 +4321,7 @@
       <c r="G218" s="16"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J218" s="2"/>
       <c r="K218" s="18"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
@@ -4737,9 +4338,7 @@
       <c r="G219" s="16"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J219" s="2"/>
       <c r="K219" s="18"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
@@ -4756,9 +4355,7 @@
       <c r="G220" s="16"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J220" s="2"/>
       <c r="K220" s="18"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
@@ -4775,9 +4372,7 @@
       <c r="G221" s="16"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J221" s="2"/>
       <c r="K221" s="18"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
@@ -4794,9 +4389,7 @@
       <c r="G222" s="16"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
-      <c r="J222" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J222" s="2"/>
       <c r="K222" s="18"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
@@ -4813,9 +4406,7 @@
       <c r="G223" s="16"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
-      <c r="J223" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J223" s="2"/>
       <c r="K223" s="18"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
@@ -4832,9 +4423,7 @@
       <c r="G224" s="16"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J224" s="2"/>
       <c r="K224" s="18"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
@@ -4851,9 +4440,7 @@
       <c r="G225" s="16"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J225" s="2"/>
       <c r="K225" s="18"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
@@ -4870,9 +4457,7 @@
       <c r="G226" s="16"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J226" s="2"/>
       <c r="K226" s="18"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
@@ -4889,9 +4474,7 @@
       <c r="G227" s="16"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J227" s="2"/>
       <c r="K227" s="18"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -4908,9 +4491,7 @@
       <c r="G228" s="16"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
-      <c r="J228" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J228" s="2"/>
       <c r="K228" s="18"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
@@ -4927,9 +4508,7 @@
       <c r="G229" s="16"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J229" s="2"/>
       <c r="K229" s="18"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -4946,9 +4525,7 @@
       <c r="G230" s="16"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
-      <c r="J230" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J230" s="2"/>
       <c r="K230" s="18"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -4965,9 +4542,7 @@
       <c r="G231" s="16"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J231" s="2"/>
       <c r="K231" s="18"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
@@ -4984,9 +4559,7 @@
       <c r="G232" s="16"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J232" s="2"/>
       <c r="K232" s="18"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -5003,9 +4576,7 @@
       <c r="G233" s="16"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J233" s="2"/>
       <c r="K233" s="18"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -5022,9 +4593,7 @@
       <c r="G234" s="16"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
-      <c r="J234" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J234" s="2"/>
       <c r="K234" s="18"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -5041,9 +4610,7 @@
       <c r="G235" s="16"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J235" s="2"/>
       <c r="K235" s="18"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
@@ -5060,9 +4627,7 @@
       <c r="G236" s="16"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
-      <c r="J236" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J236" s="2"/>
       <c r="K236" s="18"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
@@ -5079,9 +4644,7 @@
       <c r="G237" s="16"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J237" s="2"/>
       <c r="K237" s="18"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
@@ -5098,9 +4661,7 @@
       <c r="G238" s="16"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
-      <c r="J238" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J238" s="2"/>
       <c r="K238" s="18"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
@@ -5117,9 +4678,7 @@
       <c r="G239" s="16"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
-      <c r="J239" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J239" s="2"/>
       <c r="K239" s="18"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
@@ -5136,9 +4695,7 @@
       <c r="G240" s="8"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
-      <c r="J240" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J240" s="2"/>
       <c r="K240" s="18"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
